--- a/Sambot_Sys_Test.xlsx
+++ b/Sambot_Sys_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - ESIGELEC\2A\Méthode et Outils pour la Qalité Logicielle\GIT\SamBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98B0362-5C35-49EE-93F6-BDC68636EB45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EB6BD8-C28F-4545-85C3-A0090B384D58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17970" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Detailed Design Requirements</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Test if a hole is detected</t>
   </si>
   <si>
-    <t>Test if the bluetooth and SPI is fonctionnal</t>
-  </si>
-  <si>
     <t>Test if the bot can start and stop</t>
   </si>
   <si>
@@ -128,6 +125,12 @@
   </si>
   <si>
     <t>Data are display</t>
+  </si>
+  <si>
+    <t>Test if hardware equipements correspond</t>
+  </si>
+  <si>
+    <t>Test if the bluetooth(UART) and SPI is fonctionnal</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -223,15 +247,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:F8" xr:uid="{2991FC0F-3E0C-4893-B79A-AE9CB9605A44}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DD7A0286-1FFB-454E-99AE-A762B81365E2}" name="Detailed Design Requirements" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FBB99E28-0159-4D49-89A8-E463CAF15B70}" name="Test Identifier" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D0E2BF31-1E96-4685-B5C7-9550E49A8309}" name="Test description" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E840EC89-E87A-459D-B529-2AB033AAD747}" name="Datas input" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{20985630-5670-4F81-B446-24E4659C0134}" name="Datas excpected output" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7D2E23F-A373-4F59-9B54-5D5536343886}" name="Pass/Fail" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DD7A0286-1FFB-454E-99AE-A762B81365E2}" name="Detailed Design Requirements" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FBB99E28-0159-4D49-89A8-E463CAF15B70}" name="Test Identifier" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D0E2BF31-1E96-4685-B5C7-9550E49A8309}" name="Test description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E840EC89-E87A-459D-B529-2AB033AAD747}" name="Datas input" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{20985630-5670-4F81-B446-24E4659C0134}" name="Datas excpected output" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{F7D2E23F-A373-4F59-9B54-5D5536343886}" name="Pass/Fail" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -502,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +588,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -580,18 +604,20 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -604,11 +630,11 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -620,11 +646,11 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -636,11 +662,11 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -870,9 +896,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F2:F8">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Sambot_Sys_Test.xlsx
+++ b/Sambot_Sys_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - ESIGELEC\2A\Méthode et Outils pour la Qalité Logicielle\GIT\SamBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EB6BD8-C28F-4545-85C3-A0090B384D58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA6CDB5-E498-4E14-B041-C78D95FA4D1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Detailed Design Requirements</t>
   </si>
@@ -43,94 +43,166 @@
   </si>
   <si>
     <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>SYS_00100</t>
+  </si>
+  <si>
+    <t>ST_00100</t>
+  </si>
+  <si>
+    <t>The bot can move (move forward, turn 90° right, turn 180° right)</t>
+  </si>
+  <si>
+    <t>Test if the bot can move</t>
+  </si>
+  <si>
+    <t>SYS_00200</t>
+  </si>
+  <si>
+    <t>ST_00200</t>
+  </si>
+  <si>
+    <t>SYS_00300</t>
+  </si>
+  <si>
+    <t>ST_00300</t>
+  </si>
+  <si>
+    <t>SYS_00400</t>
+  </si>
+  <si>
+    <t>ST_00400</t>
+  </si>
+  <si>
+    <t>SYS_00500</t>
+  </si>
+  <si>
+    <t>ST_00500</t>
+  </si>
+  <si>
+    <t>SYS_00600</t>
+  </si>
+  <si>
+    <t>ST_00600</t>
+  </si>
+  <si>
+    <t>SYS_00700</t>
+  </si>
+  <si>
+    <t>ST_00700</t>
+  </si>
+  <si>
+    <t>Test if an obstacle is detected</t>
+  </si>
+  <si>
+    <t>Test if a hole is detected</t>
+  </si>
+  <si>
+    <t>Test if the bot can start and stop</t>
+  </si>
+  <si>
+    <t>The infrarouge sensor detect a hole</t>
+  </si>
+  <si>
+    <t>The ultrason sensor detect an obstacle</t>
+  </si>
+  <si>
+    <t>The Blutooth module communicates
+The SPI connection communicates</t>
+  </si>
+  <si>
+    <t>The bot start/stop</t>
+  </si>
+  <si>
+    <t>Data are display</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>0
+z
+q
+s
+d
+m
+l
+o</t>
+  </si>
+  <si>
+    <t>1
+2
+3
+d
+g
+l</t>
   </si>
   <si>
     <t>0
 1
 2
-a</t>
-  </si>
-  <si>
-    <t>SYS_00100</t>
-  </si>
-  <si>
-    <t>ST_00100</t>
-  </si>
-  <si>
-    <t>The bot can move (move forward, turn 90° right, turn 180° right)</t>
-  </si>
-  <si>
-    <t>Test if the bot can move</t>
-  </si>
-  <si>
-    <t>SYS_00200</t>
-  </si>
-  <si>
-    <t>ST_00200</t>
-  </si>
-  <si>
-    <t>SYS_00300</t>
-  </si>
-  <si>
-    <t>ST_00300</t>
-  </si>
-  <si>
-    <t>SYS_00400</t>
-  </si>
-  <si>
-    <t>ST_00400</t>
-  </si>
-  <si>
-    <t>SYS_00500</t>
-  </si>
-  <si>
-    <t>ST_00500</t>
-  </si>
-  <si>
-    <t>SYS_00600</t>
-  </si>
-  <si>
-    <t>ST_00600</t>
-  </si>
-  <si>
-    <t>SYS_00700</t>
-  </si>
-  <si>
-    <t>ST_00700</t>
-  </si>
-  <si>
-    <t>Test if an obstacle is detected</t>
-  </si>
-  <si>
-    <t>Test if a hole is detected</t>
-  </si>
-  <si>
-    <t>Test if the bot can start and stop</t>
-  </si>
-  <si>
-    <t>Test if data displays</t>
-  </si>
-  <si>
-    <t>The infrarouge sensor detect a hole</t>
-  </si>
-  <si>
-    <t>The ultrason sensor detect an obstacle</t>
-  </si>
-  <si>
-    <t>The Blutooth module communicates
-The SPI connection communicates</t>
-  </si>
-  <si>
-    <t>The bot start/stop</t>
-  </si>
-  <si>
-    <t>Data are display</t>
-  </si>
-  <si>
-    <t>Test if hardware equipements correspond</t>
-  </si>
-  <si>
-    <t>Test if the bluetooth(UART) and SPI is fonctionnal</t>
+3
+z
+q
+s
+d
+m
+l</t>
+  </si>
+  <si>
+    <t>0
+1
+e
+f
+z
+l
+m</t>
+  </si>
+  <si>
+    <t>0
+1
+2
+3
+z
+q
+s
+d
+m
+l
+p</t>
+  </si>
+  <si>
+    <t>MSP43G2553
+MSP43G2231</t>
+  </si>
+  <si>
+    <t>Test if hardware equipments matchs with the requirements</t>
+  </si>
+  <si>
+    <t>Test if the bluetooth(UART) and SPI are fonctionnal</t>
+  </si>
+  <si>
+    <t>Test if data are displays</t>
+  </si>
+  <si>
+    <t>SYS_00210</t>
+  </si>
+  <si>
+    <t>ST_00210</t>
+  </si>
+  <si>
+    <t>Test if the servomotor swipe</t>
+  </si>
+  <si>
+    <t>l
+m
+e
+f
+p</t>
+  </si>
+  <si>
+    <t>Test servomotor swip clockwise and counterclockwise [-45°;+45°]</t>
   </si>
 </sst>
 </file>
@@ -187,7 +259,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -199,13 +271,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -247,15 +312,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:F8" xr:uid="{2991FC0F-3E0C-4893-B79A-AE9CB9605A44}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:F9" xr:uid="{2991FC0F-3E0C-4893-B79A-AE9CB9605A44}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DD7A0286-1FFB-454E-99AE-A762B81365E2}" name="Detailed Design Requirements" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{FBB99E28-0159-4D49-89A8-E463CAF15B70}" name="Test Identifier" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D0E2BF31-1E96-4685-B5C7-9550E49A8309}" name="Test description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E840EC89-E87A-459D-B529-2AB033AAD747}" name="Datas input" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{20985630-5670-4F81-B446-24E4659C0134}" name="Datas excpected output" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F7D2E23F-A373-4F59-9B54-5D5536343886}" name="Pass/Fail" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{DD7A0286-1FFB-454E-99AE-A762B81365E2}" name="Detailed Design Requirements" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FBB99E28-0159-4D49-89A8-E463CAF15B70}" name="Test Identifier" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D0E2BF31-1E96-4685-B5C7-9550E49A8309}" name="Test description" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E840EC89-E87A-459D-B529-2AB033AAD747}" name="Datas input" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{20985630-5670-4F81-B446-24E4659C0134}" name="Datas excpected output" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F7D2E23F-A373-4F59-9B54-5D5536343886}" name="Pass/Fail" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -524,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,125 +623,163 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -894,14 +997,22 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",F2)))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sambot_Sys_Test.xlsx
+++ b/Sambot_Sys_Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - ESIGELEC\2A\Méthode et Outils pour la Qalité Logicielle\GIT\SamBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Megaport\git\SamBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA6CDB5-E498-4E14-B041-C78D95FA4D1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6DB5ED-D225-4CC8-A4EC-8F03A6E99072}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11730" yWindow="3660" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Test if a hole is detected</t>
   </si>
   <si>
-    <t>Test if the bot can start and stop</t>
-  </si>
-  <si>
     <t>The infrarouge sensor detect a hole</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Test if the bluetooth(UART) and SPI are fonctionnal</t>
   </si>
   <si>
-    <t>Test if data are displays</t>
-  </si>
-  <si>
     <t>SYS_00210</t>
   </si>
   <si>
@@ -203,6 +197,12 @@
   </si>
   <si>
     <t>Test servomotor swip clockwise and counterclockwise [-45°;+45°]</t>
+  </si>
+  <si>
+    <t>Test if data are displays with remotely sent commands</t>
+  </si>
+  <si>
+    <t>Test if the bot can move with remotely sent commands, and if the servomotor can be turned on/off remotely</t>
   </si>
 </sst>
 </file>
@@ -312,8 +312,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:F9" xr:uid="{2991FC0F-3E0C-4893-B79A-AE9CB9605A44}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:F8" xr:uid="{2991FC0F-3E0C-4893-B79A-AE9CB9605A44}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DD7A0286-1FFB-454E-99AE-A762B81365E2}" name="Detailed Design Requirements" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FBB99E28-0159-4D49-89A8-E463CAF15B70}" name="Test Identifier" dataDxfId="6"/>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -654,33 +654,33 @@
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -694,16 +694,16 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -713,15 +713,17 @@
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -729,7 +731,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -738,10 +740,10 @@
         <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -749,7 +751,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>34</v>
@@ -758,10 +760,10 @@
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -769,16 +771,14 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -996,14 +996,6 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
